--- a/Lista_Precios.xlsx
+++ b/Lista_Precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D7089-33E8-4FC7-A8D8-788234CFC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954EA5D-43EB-4659-B182-C92399144D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD73027-EAF4-4870-B478-8B201DB8E373}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD73027-EAF4-4870-B478-8B201DB8E373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Descripcion</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Patacona</t>
   </si>
   <si>
-    <t>Termo</t>
-  </si>
-  <si>
     <t>Refrigerios</t>
   </si>
   <si>
@@ -105,6 +102,18 @@
   </si>
   <si>
     <t>Pasadía Estudiantes</t>
+  </si>
+  <si>
+    <t>Cerveza</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Termo Café</t>
+  </si>
+  <si>
+    <t>Descuento</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,13 +200,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -205,6 +223,8 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -541,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD858B-891B-46F6-A714-7DF097C8024F}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +583,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>45000</v>
@@ -571,7 +591,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>35000</v>
@@ -579,7 +599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <v>20000</v>
@@ -587,7 +607,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>60000</v>
@@ -595,7 +615,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>50000</v>
@@ -603,7 +623,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>20000</v>
@@ -611,7 +631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6">
         <v>25000</v>
@@ -619,7 +639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>45000</v>
@@ -627,7 +647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>145000</v>
@@ -635,7 +655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>1500000</v>
@@ -651,7 +671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4">
         <v>80000</v>
@@ -659,7 +679,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>90000</v>
@@ -667,7 +687,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>35000</v>
@@ -683,7 +703,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4">
         <v>65000</v>
@@ -691,7 +711,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>20000</v>
@@ -699,7 +719,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>20000</v>
@@ -707,7 +727,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="6">
         <v>1500000</v>
@@ -715,10 +735,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-5000</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_Precios.xlsx
+++ b/Lista_Precios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\Cotizaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning\Cotizaciones\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954EA5D-43EB-4659-B182-C92399144D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885EEF0-547E-4272-85BC-CCF4CB42F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD73027-EAF4-4870-B478-8B201DB8E373}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Descripcion</t>
   </si>
@@ -104,16 +104,22 @@
     <t>Pasadía Estudiantes</t>
   </si>
   <si>
+    <t>Termo Café</t>
+  </si>
+  <si>
     <t>Cerveza</t>
   </si>
   <si>
     <t>Agua</t>
   </si>
   <si>
-    <t>Termo Café</t>
-  </si>
-  <si>
     <t>Descuento</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Postre</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,8 +229,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -561,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD858B-891B-46F6-A714-7DF097C8024F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +742,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>15000</v>
@@ -743,7 +750,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6">
         <v>5000</v>
@@ -751,7 +758,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>3500</v>
@@ -763,6 +770,22 @@
       </c>
       <c r="B24" s="8">
         <v>-5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
